--- a/Analysis/RQ2-RQ4/Answers to the survey.xlsx
+++ b/Analysis/RQ2-RQ4/Answers to the survey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="713" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Pos&amp;Exp" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="83">
   <si>
     <t>Current Position</t>
   </si>
@@ -276,15 +276,31 @@
   <si>
     <t>In general, the test is correct in its set-up, explanation, execution and understanding of the result and the experiment. Personally, to evaluate the tests I have based myself mainly on whether I could interpret what the test does with just the body of the test itself. In some cases very similar tests were generated in the same interaction. Another point that I did not evaluate that is important to me is the name given to the tests, which is what best represents a test. Here the tests had standard names like Test0, Test1, etc. The structure of a unit test, although understandable, is not 100% similar to how I would do it (I would need to see setup, execution, asserts and teardown).</t>
   </si>
+  <si>
+    <t>Focused on the tested method</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Some tests were exactly the same, but changing the value a few units. They were not even edge cases, so they were equally readable. I would skip that comparison. Methods from base classes were appearing very often, so I was not completely sure that the goal was fulfilled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my opinion, including comments in the test files would help increase legibility </t>
+  </si>
+  <si>
+    <t>Increase flexibility in the readability score scale. Choosing from 3 to 10 feels too short and it makes decisions more difficult.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d\-m"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -313,6 +329,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -340,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -641,11 +663,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,13 +850,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,12 +858,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,13 +1126,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:V1000"/>
+  <dimension ref="B1:V1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1048,34 +1144,34 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="61" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="57"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -2199,182 +2295,406 @@
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="9"/>
+    </row>
+    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9"/>
+    </row>
+    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41" s="8"/>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="11">
-        <f t="shared" ref="C36:V36" si="0">COUNTA(C4:C35)</f>
+      <c r="C43" s="11">
+        <f>COUNTA(C4:C42)</f>
         <v>4</v>
       </c>
-      <c r="D36" s="12">
-        <f t="shared" si="0"/>
+      <c r="D43" s="12">
+        <f t="shared" ref="D43:G43" si="0">COUNTA(D4:D42)</f>
         <v>4</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E43" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F43" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G36" s="13">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H36" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I36" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J36" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K36" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L36" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M36" s="11">
+      <c r="G43" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="N36" s="12">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O36" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P36" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="0"/>
+      <c r="H43" s="11">
+        <f>COUNTA(H4:H42)</f>
+        <v>10</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" ref="I43:L43" si="1">COUNTA(I4:I42)</f>
+        <v>9</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L43" s="12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="M43" s="11">
+        <f>COUNTA(M4:M42)</f>
+        <v>15</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" ref="N43:Q43" si="2">COUNTA(N4:N42)</f>
+        <v>10</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R36" s="12">
-        <f t="shared" si="0"/>
+      <c r="P43" s="12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q43" s="64">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R43" s="12">
+        <f>COUNTA(R4:R42)</f>
+        <v>5</v>
+      </c>
+      <c r="S43" s="12">
+        <f t="shared" ref="S43:V43" si="3">COUNTA(S4:S42)</f>
+        <v>9</v>
+      </c>
+      <c r="T43" s="12">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="U43" s="12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="V43" s="64">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="S36" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T36" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U36" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V36" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+    </row>
+    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="15">
-        <f t="shared" ref="C37:G37" si="1">C36/($C$36+$D$36+$E$36+$F$36+$G$36)*100</f>
-        <v>12.5</v>
-      </c>
-      <c r="D37" s="16">
-        <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="E37" s="16">
-        <f t="shared" si="1"/>
-        <v>21.875</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="1"/>
-        <v>31.25</v>
-      </c>
-      <c r="G37" s="17">
-        <f t="shared" si="1"/>
-        <v>21.875</v>
-      </c>
-      <c r="H37" s="15">
-        <f t="shared" ref="H37:L37" si="2">H36/($H$36+$I$36+$J$36+$K$36+$L$36)*100</f>
-        <v>18.75</v>
-      </c>
-      <c r="I37" s="16">
-        <f t="shared" si="2"/>
-        <v>21.875</v>
-      </c>
-      <c r="J37" s="16">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-      <c r="K37" s="16">
-        <f t="shared" si="2"/>
-        <v>9.375</v>
-      </c>
-      <c r="L37" s="17">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="M37" s="15">
-        <f t="shared" ref="M37:Q37" si="3">M36/($M$36+$N$36+$O$36+$P$36+$Q$36)*100</f>
-        <v>43.75</v>
-      </c>
-      <c r="N37" s="16">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="O37" s="16">
-        <f t="shared" si="3"/>
-        <v>3.125</v>
-      </c>
-      <c r="P37" s="16">
-        <f t="shared" si="3"/>
-        <v>21.875</v>
-      </c>
-      <c r="Q37" s="17">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="R37" s="15">
-        <f t="shared" ref="R37:V37" si="4">R36/($R$36+$S$36+$T$36+$U$36+$V$36)*100</f>
-        <v>6.25</v>
-      </c>
-      <c r="S37" s="16">
-        <f t="shared" si="4"/>
-        <v>21.875</v>
-      </c>
-      <c r="T37" s="16">
-        <f t="shared" si="4"/>
-        <v>34.375</v>
-      </c>
-      <c r="U37" s="16">
-        <f t="shared" si="4"/>
-        <v>31.25</v>
-      </c>
-      <c r="V37" s="17">
-        <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C44" s="15">
+        <f>C43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
+        <v>10.256410256410255</v>
+      </c>
+      <c r="D44" s="16">
+        <f>D43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
+        <v>10.256410256410255</v>
+      </c>
+      <c r="E44" s="16">
+        <f>E43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
+        <v>17.948717948717949</v>
+      </c>
+      <c r="F44" s="16">
+        <f>F43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
+        <v>25.641025641025639</v>
+      </c>
+      <c r="G44" s="17">
+        <f>G43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
+        <v>35.897435897435898</v>
+      </c>
+      <c r="H44" s="15">
+        <f>H43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>25.641025641025639</v>
+      </c>
+      <c r="I44" s="16">
+        <f>I43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="J44" s="16">
+        <f>J43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="K44" s="16">
+        <f>K43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="L44" s="17">
+        <f>L43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>12.820512820512819</v>
+      </c>
+      <c r="M44" s="15">
+        <f>M43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="N44" s="16">
+        <f>N43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>25.641025641025639</v>
+      </c>
+      <c r="O44" s="16">
+        <f>O43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>5.1282051282051277</v>
+      </c>
+      <c r="P44" s="16">
+        <f>P43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="Q44" s="17">
+        <f>Q43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="R44" s="15">
+        <f>R43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>12.820512820512819</v>
+      </c>
+      <c r="S44" s="16">
+        <f>S43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="T44" s="16">
+        <f>T43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="U44" s="16">
+        <f>U43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>25.641025641025639</v>
+      </c>
+      <c r="V44" s="17">
+        <f>V43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>5.1282051282051277</v>
+      </c>
+    </row>
     <row r="45" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3331,6 +3651,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:G2"/>
@@ -3348,13 +3675,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:V1000"/>
+  <dimension ref="B1:V1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3366,34 +3693,34 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="58" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="57"/>
     </row>
     <row r="3" spans="2:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -4513,182 +4840,406 @@
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V36" s="9"/>
+    </row>
+    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V39" s="9"/>
+    </row>
+    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="9"/>
+    </row>
+    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" s="8"/>
+      <c r="V42" s="9"/>
+    </row>
+    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="22">
-        <f t="shared" ref="C36:V36" si="0">COUNTA(C4:C35)</f>
+      <c r="C43" s="22">
+        <f>COUNTA(C4:C42)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D43" s="23">
+        <f t="shared" ref="D43:G43" si="0">COUNTA(D4:D42)</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E36" s="23">
+        <v>8</v>
+      </c>
+      <c r="F43" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F36" s="23">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G36" s="24">
+        <v>30</v>
+      </c>
+      <c r="G43" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="22">
-        <f t="shared" si="0"/>
+      <c r="H43" s="22">
+        <f>COUNTA(H4:H42)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="23">
-        <f t="shared" si="0"/>
+      <c r="I43" s="23">
+        <f t="shared" ref="I43:L43" si="1">COUNTA(I4:I42)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K36" s="23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L36" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P36" s="23">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="Q36" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U36" s="23">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="V36" s="24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="J43" s="23">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C37" s="15">
-        <f t="shared" ref="C37:G37" si="1">C36/($C$36+$D$36+$E$36+$F$36+$G$36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="K43" s="23">
         <f t="shared" si="1"/>
-        <v>3.125</v>
-      </c>
-      <c r="E37" s="16">
-        <f t="shared" si="1"/>
-        <v>18.75</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="1"/>
-        <v>78.125</v>
-      </c>
-      <c r="G37" s="17">
+        <v>24</v>
+      </c>
+      <c r="L43" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="15">
-        <f t="shared" ref="H37:L37" si="2">H36/($H$36+$I$36+$J$36+$K$36+$L$36)*100</f>
+      <c r="M43" s="22">
+        <f>COUNTA(M4:M42)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="16">
+      <c r="N43" s="23">
+        <f t="shared" ref="N43:Q43" si="2">COUNTA(N4:N42)</f>
+        <v>1</v>
+      </c>
+      <c r="O43" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P43" s="23">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q43" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="16">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-      <c r="K37" s="16">
-        <f t="shared" si="2"/>
-        <v>62.5</v>
-      </c>
-      <c r="L37" s="17">
-        <f t="shared" si="2"/>
+      <c r="R43" s="23">
+        <f>COUNTA(R4:R42)</f>
         <v>0</v>
       </c>
-      <c r="M37" s="15">
-        <f t="shared" ref="M37:Q37" si="3">M36/($M$36+$N$36+$O$36+$P$36+$Q$36)*100</f>
+      <c r="S43" s="23">
+        <f t="shared" ref="S43:V43" si="3">COUNTA(S4:S42)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="16">
+      <c r="T43" s="23">
         <f t="shared" si="3"/>
-        <v>3.125</v>
-      </c>
-      <c r="O37" s="16">
+        <v>5</v>
+      </c>
+      <c r="U43" s="23">
         <f t="shared" si="3"/>
-        <v>3.125</v>
-      </c>
-      <c r="P37" s="16">
+        <v>33</v>
+      </c>
+      <c r="V43" s="64">
         <f t="shared" si="3"/>
-        <v>93.75</v>
-      </c>
-      <c r="Q37" s="17">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" ref="C44:G44" si="4">C43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
         <v>0</v>
       </c>
-      <c r="R37" s="15">
-        <f t="shared" ref="R37:V37" si="4">R36/($R$36+$S$36+$T$36+$U$36+$V$36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="16">
+      <c r="D44" s="16">
+        <f t="shared" si="4"/>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="E44" s="16">
+        <f t="shared" si="4"/>
+        <v>20.512820512820511</v>
+      </c>
+      <c r="F44" s="16">
+        <f t="shared" si="4"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="G44" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T37" s="16">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="U37" s="16">
-        <f t="shared" si="4"/>
-        <v>84.375</v>
-      </c>
-      <c r="V37" s="17">
-        <f t="shared" si="4"/>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H44" s="15">
+        <f t="shared" ref="H44:L44" si="5">H43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="5"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="5"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" ref="M44:Q44" si="6">M43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" si="6"/>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" si="6"/>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="P44" s="16">
+        <f t="shared" si="6"/>
+        <v>94.871794871794862</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="15">
+        <f t="shared" ref="R44:V44" si="7">R43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="16">
+        <f t="shared" si="7"/>
+        <v>12.820512820512819</v>
+      </c>
+      <c r="U44" s="16">
+        <f t="shared" si="7"/>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="V44" s="17">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025639</v>
+      </c>
+    </row>
     <row r="45" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5645,6 +6196,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:G2"/>
@@ -5662,13 +6220,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:V1000"/>
+  <dimension ref="B1:V1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:L2"/>
+      <selection pane="bottomRight" activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5680,34 +6238,34 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="58" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="57"/>
     </row>
     <row r="3" spans="2:22" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -6831,182 +7389,406 @@
       <c r="V35" s="9"/>
     </row>
     <row r="36" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="65">
+        <v>33</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="66"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="66"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="U36" s="66"/>
+      <c r="V36" s="67"/>
+    </row>
+    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="65">
+        <v>34</v>
+      </c>
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="68"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="67"/>
+    </row>
+    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="65">
+        <v>35</v>
+      </c>
+      <c r="C38" s="65"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="68"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="68"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="67"/>
+    </row>
+    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="65">
+        <v>36</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="U39" s="66"/>
+      <c r="V39" s="67"/>
+    </row>
+    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="65">
+        <v>37</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="67"/>
+    </row>
+    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="65">
+        <v>38</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="67"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="V41" s="67"/>
+    </row>
+    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="65">
+        <v>39</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="67"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" s="67"/>
+    </row>
+    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="22">
-        <f t="shared" ref="C36:V36" si="0">COUNTA(C4:C35)</f>
+      <c r="C43" s="22">
+        <f>COUNTA(C4:C42)</f>
         <v>1</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D43" s="23">
+        <f t="shared" ref="D43:G43" si="0">COUNTA(D4:D42)</f>
+        <v>3</v>
+      </c>
+      <c r="E43" s="23">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E36" s="23">
+        <v>17</v>
+      </c>
+      <c r="F43" s="23">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F36" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G36" s="24">
+        <v>18</v>
+      </c>
+      <c r="G43" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="22">
-        <f t="shared" si="0"/>
+      <c r="H43" s="22">
+        <f>COUNTA(H4:H42)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J36" s="23">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="K36" s="23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L36" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N36" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O36" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P36" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q36" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S36" s="23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T36" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="U36" s="23">
-        <f t="shared" si="0"/>
+      <c r="I43" s="23">
+        <f t="shared" ref="I43:L43" si="1">COUNTA(I4:I42)</f>
+        <v>6</v>
+      </c>
+      <c r="J43" s="23">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K43" s="23">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="V36" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="15">
-        <f t="shared" ref="C37:G37" si="1">C36/($C$36+$D$36+$E$36+$F$36+$G$36)*100</f>
-        <v>3.125</v>
-      </c>
-      <c r="D37" s="16">
-        <f t="shared" si="1"/>
-        <v>9.375</v>
-      </c>
-      <c r="E37" s="16">
-        <f t="shared" si="1"/>
-        <v>40.625</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="1"/>
-        <v>46.875</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="L43" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="15">
-        <f t="shared" ref="H37:L37" si="2">H36/($H$36+$I$36+$J$36+$K$36+$L$36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="16">
+      <c r="M43" s="22">
+        <f>COUNTA(M4:M42)</f>
+        <v>2</v>
+      </c>
+      <c r="N43" s="23">
+        <f t="shared" ref="N43:Q43" si="2">COUNTA(N4:N42)</f>
+        <v>11</v>
+      </c>
+      <c r="O43" s="23">
         <f t="shared" si="2"/>
-        <v>15.625</v>
-      </c>
-      <c r="J37" s="16">
+        <v>16</v>
+      </c>
+      <c r="P43" s="23">
         <f t="shared" si="2"/>
-        <v>46.875</v>
-      </c>
-      <c r="K37" s="16">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-      <c r="L37" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M37" s="15">
-        <f t="shared" ref="M37:Q37" si="3">M36/($M$36+$N$36+$O$36+$P$36+$Q$36)*100</f>
-        <v>6.25</v>
-      </c>
-      <c r="N37" s="16">
+      <c r="R43" s="63">
+        <f>COUNTA(R4:R42)</f>
+        <v>1</v>
+      </c>
+      <c r="S43" s="23">
+        <f t="shared" ref="S43:V43" si="3">COUNTA(S4:S42)</f>
+        <v>4</v>
+      </c>
+      <c r="T43" s="23">
         <f t="shared" si="3"/>
-        <v>31.25</v>
-      </c>
-      <c r="O37" s="16">
+        <v>15</v>
+      </c>
+      <c r="U43" s="23">
         <f t="shared" si="3"/>
-        <v>31.25</v>
-      </c>
-      <c r="P37" s="16">
-        <f t="shared" si="3"/>
-        <v>31.25</v>
-      </c>
-      <c r="Q37" s="17">
+        <v>19</v>
+      </c>
+      <c r="V43" s="64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R37" s="15">
-        <f t="shared" ref="R37:V37" si="4">R36/($R$36+$S$36+$T$36+$U$36+$V$36)*100</f>
-        <v>3.125</v>
-      </c>
-      <c r="S37" s="16">
+    </row>
+    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="15">
+        <f t="shared" ref="C44:G44" si="4">C43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="D44" s="16">
         <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-      <c r="T37" s="16">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="E44" s="16">
         <f t="shared" si="4"/>
-        <v>40.625</v>
-      </c>
-      <c r="U37" s="16">
+        <v>43.589743589743591</v>
+      </c>
+      <c r="F44" s="16">
         <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="V37" s="17">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="G44" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H44" s="15">
+        <f t="shared" ref="H44:L44" si="5">H43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="16">
+        <f t="shared" si="5"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="5"/>
+        <v>43.589743589743591</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="5"/>
+        <v>41.025641025641022</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" ref="M44:Q44" si="6">M43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>5.1282051282051277</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" si="6"/>
+        <v>28.205128205128204</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" si="6"/>
+        <v>41.025641025641022</v>
+      </c>
+      <c r="P44" s="16">
+        <f t="shared" si="6"/>
+        <v>25.641025641025639</v>
+      </c>
+      <c r="Q44" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="15">
+        <f t="shared" ref="R44:V44" si="7">R43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="S44" s="16">
+        <f t="shared" si="7"/>
+        <v>10.256410256410255</v>
+      </c>
+      <c r="T44" s="16">
+        <f t="shared" si="7"/>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="U44" s="16">
+        <f t="shared" si="7"/>
+        <v>48.717948717948715</v>
+      </c>
+      <c r="V44" s="17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="45" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7963,6 +8745,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:G2"/>
@@ -7980,13 +8769,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AR1000"/>
+  <dimension ref="B1:AR1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:N2"/>
+      <selection pane="bottomRight" activeCell="AR43" sqref="AR43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8001,59 +8790,59 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="58" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="62" t="s">
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="62" t="s">
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="58" t="s">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="59"/>
-      <c r="AP2" s="59"/>
-      <c r="AQ2" s="60"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="57"/>
       <c r="AR2" s="26"/>
     </row>
     <row r="3" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8168,14 +8957,14 @@
       <c r="AL3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="65" t="s">
+      <c r="AM3" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="60"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="57"/>
     </row>
     <row r="4" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
@@ -10084,322 +10873,732 @@
       <c r="AR35" s="35"/>
     </row>
     <row r="36" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM36" s="34"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="35"/>
+    </row>
+    <row r="37" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="33"/>
+      <c r="AQ37" s="33"/>
+      <c r="AR37" s="35"/>
+    </row>
+    <row r="38" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN38" s="33"/>
+      <c r="AO38" s="33"/>
+      <c r="AP38" s="33"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="35"/>
+    </row>
+    <row r="39" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM39" s="34"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="33"/>
+      <c r="AQ39" s="33"/>
+      <c r="AR39" s="35"/>
+    </row>
+    <row r="40" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM40" s="34"/>
+      <c r="AN40" s="33"/>
+      <c r="AO40" s="33"/>
+      <c r="AP40" s="33"/>
+      <c r="AQ40" s="33"/>
+      <c r="AR40" s="35"/>
+    </row>
+    <row r="41" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="33"/>
+      <c r="AQ41" s="33"/>
+      <c r="AR41" s="35"/>
+    </row>
+    <row r="42" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="9"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM42" s="34"/>
+      <c r="AN42" s="33"/>
+      <c r="AO42" s="33"/>
+      <c r="AP42" s="33"/>
+      <c r="AQ42" s="33"/>
+      <c r="AR42" s="35"/>
+    </row>
+    <row r="43" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="11">
-        <f t="shared" ref="C36:AL36" si="0">COUNTA(C4:C35)</f>
-        <v>5</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C43" s="11">
+        <f>COUNTA(C4:C42)</f>
+        <v>6</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" ref="D43:AF43" si="0">COUNTA(D4:D42)</f>
+        <v>6</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G43" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K43" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L43" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E36" s="12">
+      <c r="M43" s="12">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F36" s="12">
+        <v>4</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P43" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q43" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R43" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G36" s="12">
+      <c r="S43" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H36" s="13">
+        <v>7</v>
+      </c>
+      <c r="T43" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="V43" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="W43" s="12">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="X43" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y43" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z43" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA43" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AC43" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AD43" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE43" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AF43" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K36" s="12">
-        <f t="shared" si="0"/>
+      <c r="AG43" s="12">
+        <f>COUNTA(AG4:AG42)</f>
         <v>6</v>
       </c>
-      <c r="L36" s="12">
-        <f t="shared" si="0"/>
+      <c r="AH43" s="12">
+        <f t="shared" ref="AH43:AL43" si="1">COUNTA(AH4:AH42)</f>
         <v>4</v>
       </c>
-      <c r="M36" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P36" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Q36" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="R36" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S36" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T36" s="13">
-        <f t="shared" si="0"/>
+      <c r="AI43" s="12">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U36" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="V36" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="W36" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="X36" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y36" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z36" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AA36" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AB36" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AC36" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AD36" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AE36" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="AF36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AH36" s="12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AI36" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AM36" s="22"/>
-      <c r="AN36" s="23"/>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
-      <c r="AQ36" s="24"/>
-      <c r="AR36" s="36"/>
-    </row>
-    <row r="37" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="37">
-        <f t="shared" ref="C37:H37" si="1">C36/($C$36+$D$36+$E$36+$F$36+$G$36+$H$36)*100</f>
-        <v>15.625</v>
-      </c>
-      <c r="D37" s="38">
-        <f t="shared" si="1"/>
-        <v>15.625</v>
-      </c>
-      <c r="E37" s="38">
-        <f t="shared" si="1"/>
-        <v>34.375</v>
-      </c>
-      <c r="F37" s="38">
-        <f t="shared" si="1"/>
-        <v>18.75</v>
-      </c>
-      <c r="G37" s="38">
-        <f t="shared" si="1"/>
-        <v>15.625</v>
-      </c>
-      <c r="H37" s="39">
+      <c r="AJ43" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="38">
-        <f t="shared" ref="I37:N37" si="2">I36/($I$36+$J$36+$K$36+$L$36+$M$36+$N$36)*100</f>
-        <v>31.25</v>
-      </c>
-      <c r="J37" s="38">
+      <c r="AK43" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL43" s="12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="36"/>
+    </row>
+    <row r="44" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="69">
+        <f t="shared" ref="C44:H44" si="2">C43/($C$43+$D$43+$E$43+$F$43+$G$43+$H$43)*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="D44" s="70">
         <f t="shared" si="2"/>
-        <v>28.125</v>
-      </c>
-      <c r="K37" s="38">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="E44" s="70">
         <f t="shared" si="2"/>
-        <v>18.75</v>
-      </c>
-      <c r="L37" s="38">
+        <v>35.897435897435898</v>
+      </c>
+      <c r="F44" s="70">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="M37" s="38">
+        <v>17.948717948717949</v>
+      </c>
+      <c r="G44" s="70">
         <f t="shared" si="2"/>
-        <v>9.375</v>
-      </c>
-      <c r="N37" s="38">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="H44" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O37" s="37">
-        <f t="shared" ref="O37:T37" si="3">O36/($O$36+$P$36+$Q$36+$R$36+$S$36+$T$36)*100</f>
-        <v>21.875</v>
-      </c>
-      <c r="P37" s="38">
+      <c r="I44" s="70">
+        <f t="shared" ref="I44:N44" si="3">I43/($I$43+$J$43+$K$43+$L$43+$M$43+$N$43)*100</f>
+        <v>28.205128205128204</v>
+      </c>
+      <c r="J44" s="70">
         <f t="shared" si="3"/>
-        <v>18.75</v>
-      </c>
-      <c r="Q37" s="38">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="K44" s="70">
         <f t="shared" si="3"/>
-        <v>18.75</v>
-      </c>
-      <c r="R37" s="38">
+        <v>17.948717948717949</v>
+      </c>
+      <c r="L44" s="70">
         <f t="shared" si="3"/>
-        <v>18.75</v>
-      </c>
-      <c r="S37" s="38">
+        <v>12.820512820512819</v>
+      </c>
+      <c r="M44" s="70">
         <f t="shared" si="3"/>
-        <v>18.75</v>
-      </c>
-      <c r="T37" s="39">
+        <v>10.256410256410255</v>
+      </c>
+      <c r="N44" s="70">
         <f t="shared" si="3"/>
-        <v>3.125</v>
-      </c>
-      <c r="U37" s="37">
-        <f t="shared" ref="U37:Z37" si="4">U36/($U$36+$V$36+$W$36+$X$36+$Y$36+$Z$36)*100</f>
-        <v>18.75</v>
-      </c>
-      <c r="V37" s="38">
+        <v>0</v>
+      </c>
+      <c r="O44" s="69">
+        <f t="shared" ref="O44:T44" si="4">O43/($O$43+$P$43+$Q$43+$R$43+$S$43+$T$43)*100</f>
+        <v>20.512820512820511</v>
+      </c>
+      <c r="P44" s="70">
         <f t="shared" si="4"/>
-        <v>28.125</v>
-      </c>
-      <c r="W37" s="38">
+        <v>20.512820512820511</v>
+      </c>
+      <c r="Q44" s="70">
         <f t="shared" si="4"/>
-        <v>34.375</v>
-      </c>
-      <c r="X37" s="38">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="R44" s="70">
         <f t="shared" si="4"/>
-        <v>9.375</v>
-      </c>
-      <c r="Y37" s="38">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="S44" s="70">
         <f t="shared" si="4"/>
-        <v>3.125</v>
-      </c>
-      <c r="Z37" s="38">
+        <v>17.948717948717949</v>
+      </c>
+      <c r="T44" s="71">
         <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-      <c r="AA37" s="15">
-        <f t="shared" ref="AA37:AF37" si="5">AA36/($AA$36+$AB$36+$AC$36+$AD$36+$AE$36+$AF$36)*100</f>
-        <v>31.25</v>
-      </c>
-      <c r="AB37" s="16">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="U44" s="69">
+        <f t="shared" ref="U44:Z44" si="5">U43/($U$43+$V$43+$W$43+$X$43+$Y$43+$Z$43)*100</f>
+        <v>17.948717948717949</v>
+      </c>
+      <c r="V44" s="70">
         <f t="shared" si="5"/>
-        <v>21.875</v>
-      </c>
-      <c r="AC37" s="16">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="W44" s="70">
         <f t="shared" si="5"/>
-        <v>18.75</v>
-      </c>
-      <c r="AD37" s="16">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="X44" s="70">
         <f t="shared" si="5"/>
-        <v>21.875</v>
-      </c>
-      <c r="AE37" s="16">
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="Y44" s="70">
         <f t="shared" si="5"/>
-        <v>6.25</v>
-      </c>
-      <c r="AF37" s="16">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="Z44" s="70">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="15">
-        <f t="shared" ref="AG37:AL37" si="6">AG36/($AG$36+$AH$36+$AI$36+$AJ$36+$AK$36+$AL$36)*100</f>
-        <v>15.625</v>
-      </c>
-      <c r="AH37" s="16">
+        <v>5.1282051282051277</v>
+      </c>
+      <c r="AA44" s="72">
+        <f t="shared" ref="AA44:AF44" si="6">AA43/($AA$43+$AB$43+$AC$43+$AD$43+$AE$43+$AF$43)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AB44" s="73">
         <f t="shared" si="6"/>
-        <v>9.375</v>
-      </c>
-      <c r="AI37" s="16">
+        <v>25.641025641025639</v>
+      </c>
+      <c r="AC44" s="73">
         <f t="shared" si="6"/>
-        <v>3.125</v>
-      </c>
-      <c r="AJ37" s="16">
+        <v>17.948717948717949</v>
+      </c>
+      <c r="AD44" s="73">
+        <f t="shared" si="6"/>
+        <v>17.948717948717949</v>
+      </c>
+      <c r="AE44" s="73">
+        <f t="shared" si="6"/>
+        <v>5.1282051282051277</v>
+      </c>
+      <c r="AF44" s="73">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="16">
-        <f t="shared" si="6"/>
+      <c r="AG44" s="72">
+        <f t="shared" ref="AG44:AL44" si="7">AG43/($AG$43+$AH$43+$AI$43+$AJ$43+$AK$43+$AL$43)*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="AH44" s="73">
+        <f t="shared" si="7"/>
+        <v>10.256410256410255</v>
+      </c>
+      <c r="AI44" s="73">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="AJ44" s="73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="17">
-        <f t="shared" si="6"/>
-        <v>71.875</v>
-      </c>
-      <c r="AM37" s="40"/>
-      <c r="AN37" s="40"/>
-      <c r="AO37" s="40"/>
-      <c r="AP37" s="40"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="42"/>
-    </row>
-    <row r="38" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="AK44" s="73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL44" s="74">
+        <f t="shared" si="7"/>
+        <v>71.794871794871796</v>
+      </c>
+      <c r="AM44" s="40"/>
+      <c r="AN44" s="40"/>
+      <c r="AO44" s="40"/>
+      <c r="AP44" s="40"/>
+      <c r="AQ44" s="41"/>
+      <c r="AR44" s="42"/>
+    </row>
     <row r="45" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11356,6 +12555,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="AG2:AQ2"/>
@@ -11376,13 +12582,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:AF1000"/>
+  <dimension ref="B1:AF1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1:AF1048576"/>
+      <selection pane="bottomRight" activeCell="AG43" sqref="AG43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11394,48 +12600,48 @@
   <sheetData>
     <row r="1" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="58" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="58" t="s">
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="58" t="s">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="60"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="57"/>
     </row>
     <row r="3" spans="2:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -13036,262 +14242,584 @@
       <c r="AF35" s="9"/>
     </row>
     <row r="36" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="9"/>
+    </row>
+    <row r="37" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="9"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF37" s="9"/>
+    </row>
+    <row r="38" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="9"/>
+      <c r="M38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="9"/>
+    </row>
+    <row r="39" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="9"/>
+    </row>
+    <row r="40" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="9"/>
+    </row>
+    <row r="41" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="9"/>
+      <c r="M41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="9"/>
+    </row>
+    <row r="42" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF42" s="9"/>
+    </row>
+    <row r="43" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="11">
-        <f t="shared" ref="C36:AF36" si="0">COUNTA(C4:C35)</f>
+      <c r="C43" s="11">
+        <f>COUNTA(C4:C42)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D43" s="12">
+        <f t="shared" ref="D43:AA43" si="0">COUNTA(D4:D42)</f>
+        <v>4</v>
+      </c>
+      <c r="E43" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E36" s="12">
+        <v>9</v>
+      </c>
+      <c r="F43" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="G36" s="13">
+        <v>26</v>
+      </c>
+      <c r="G43" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H43" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="K36" s="12">
+        <v>10</v>
+      </c>
+      <c r="K43" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="L36" s="13">
+        <v>28</v>
+      </c>
+      <c r="L43" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="11">
+      <c r="M43" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N36" s="12">
+        <v>18</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O43" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="P43" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="S43" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="O36" s="12">
+      <c r="T43" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P36" s="12">
+        <v>10</v>
+      </c>
+      <c r="U43" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="V43" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R36" s="11">
+      <c r="W43" s="11">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="S36" s="12">
+        <v>0</v>
+      </c>
+      <c r="X43" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Y43" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T36" s="12">
+      <c r="Z43" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U36" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V36" s="13">
+        <v>27</v>
+      </c>
+      <c r="AA43" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W36" s="11">
-        <f t="shared" si="0"/>
+      <c r="AB43" s="11">
+        <f>COUNTA(AB4:AB42)</f>
+        <v>4</v>
+      </c>
+      <c r="AC43" s="12">
+        <f t="shared" ref="AC43:AF43" si="1">COUNTA(AC4:AC42)</f>
+        <v>6</v>
+      </c>
+      <c r="AD43" s="12">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AE43" s="12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AF43" s="64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="37">
+        <f t="shared" ref="C44:G44" si="2">C43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
         <v>0</v>
       </c>
-      <c r="X36" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y36" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="Z36" s="12">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AA36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AC36" s="12">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AD36" s="12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AE36" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AF36" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="37">
-        <f t="shared" ref="C37:G37" si="1">C36/($C$36+$D$36+$E$36+$F$36+$G$36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="38">
-        <f t="shared" si="1"/>
-        <v>9.375</v>
-      </c>
-      <c r="E37" s="38">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="F37" s="38">
-        <f t="shared" si="1"/>
-        <v>65.625</v>
-      </c>
-      <c r="G37" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="37">
-        <f t="shared" ref="H37:L37" si="2">H36/($H$36+$I$36+$J$36+$K$36+$L$36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="38">
+      <c r="D44" s="38">
         <f t="shared" si="2"/>
-        <v>3.125</v>
-      </c>
-      <c r="J37" s="38">
+        <v>10.256410256410255</v>
+      </c>
+      <c r="E44" s="38">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="K37" s="38">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F44" s="38">
         <f t="shared" si="2"/>
-        <v>71.875</v>
-      </c>
-      <c r="L37" s="38">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G44" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M37" s="37">
-        <f t="shared" ref="M37:Q37" si="3">M36/($M$36+$N$36+$O$36+$P$36+$Q$36)*100</f>
-        <v>43.75</v>
-      </c>
-      <c r="N37" s="38">
+      <c r="H44" s="37">
+        <f t="shared" ref="H44:L44" si="3">H43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="38">
         <f t="shared" si="3"/>
-        <v>28.125</v>
-      </c>
-      <c r="O37" s="38">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="J44" s="38">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="P37" s="38">
+        <v>25.641025641025639</v>
+      </c>
+      <c r="K44" s="38">
         <f t="shared" si="3"/>
-        <v>3.125</v>
-      </c>
-      <c r="Q37" s="39">
+        <v>71.794871794871796</v>
+      </c>
+      <c r="L44" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R37" s="37">
-        <f t="shared" ref="R37:V37" si="4">R36/($R$36+$S$36+$T$36+$U$36+$V$36)*100</f>
-        <v>46.875</v>
-      </c>
-      <c r="S37" s="38">
+      <c r="M44" s="37">
+        <f t="shared" ref="M44:Q44" si="4">M43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="N44" s="38">
         <f t="shared" si="4"/>
-        <v>21.875</v>
-      </c>
-      <c r="T37" s="38">
+        <v>25.641025641025639</v>
+      </c>
+      <c r="O44" s="38">
         <f t="shared" si="4"/>
-        <v>28.125</v>
-      </c>
-      <c r="U37" s="38">
+        <v>25.641025641025639</v>
+      </c>
+      <c r="P44" s="38">
         <f t="shared" si="4"/>
-        <v>3.125</v>
-      </c>
-      <c r="V37" s="39">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="Q44" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W37" s="38">
-        <f t="shared" ref="W37:AA37" si="5">W36/($W$36+$X$36+$Y$36+$Z$36+$AA$36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="X37" s="38">
+      <c r="R44" s="37">
+        <f t="shared" ref="R44:V44" si="5">R43/($R$43+$S$43+$T$43+$U$43+$V$43)*100</f>
+        <v>48.717948717948715</v>
+      </c>
+      <c r="S44" s="38">
         <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="Y37" s="38">
+        <v>23.076923076923077</v>
+      </c>
+      <c r="T44" s="38">
         <f t="shared" si="5"/>
-        <v>18.75</v>
-      </c>
-      <c r="Z37" s="38">
+        <v>25.641025641025639</v>
+      </c>
+      <c r="U44" s="38">
         <f t="shared" si="5"/>
-        <v>68.75</v>
-      </c>
-      <c r="AA37" s="39">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="V44" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="37">
-        <f t="shared" ref="AB37:AF37" si="6">AB36/($AB$36+$AC$36+$AD$36+$AE$36+$AF$36)*100</f>
-        <v>12.5</v>
-      </c>
-      <c r="AC37" s="38">
+      <c r="W44" s="38">
+        <f t="shared" ref="W44:AA44" si="6">W43/($W$43+$X$43+$Y$43+$Z$43+$AA$43)*100</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="38">
         <f t="shared" si="6"/>
-        <v>18.75</v>
-      </c>
-      <c r="AD37" s="38">
+        <v>12.820512820512819</v>
+      </c>
+      <c r="Y44" s="38">
         <f t="shared" si="6"/>
-        <v>37.5</v>
-      </c>
-      <c r="AE37" s="38">
+        <v>17.948717948717949</v>
+      </c>
+      <c r="Z44" s="38">
         <f t="shared" si="6"/>
-        <v>28.125</v>
-      </c>
-      <c r="AF37" s="39">
+        <v>69.230769230769226</v>
+      </c>
+      <c r="AA44" s="39">
         <f t="shared" si="6"/>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="38" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="37">
+        <f t="shared" ref="AB44:AF44" si="7">AB43/($AB$43+$AC$43+$AD$43+$AE$43+$AF$43)*100</f>
+        <v>10.256410256410255</v>
+      </c>
+      <c r="AC44" s="38">
+        <f t="shared" si="7"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="AD44" s="38">
+        <f t="shared" si="7"/>
+        <v>43.589743589743591</v>
+      </c>
+      <c r="AE44" s="38">
+        <f t="shared" si="7"/>
+        <v>28.205128205128204</v>
+      </c>
+      <c r="AF44" s="39">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025639</v>
+      </c>
+    </row>
     <row r="45" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14248,6 +15776,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AB2:AF2"/>
@@ -14267,13 +15802,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:Q1000"/>
+  <dimension ref="B1:Q1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14285,27 +15820,27 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="58" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="58" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="60"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -15189,142 +16724,317 @@
       <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="11">
-        <f t="shared" ref="C36:Q36" si="0">COUNTA(C4:C35)</f>
+      <c r="C43" s="11">
+        <f>COUNTA(C4:C42)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D43" s="12">
+        <f t="shared" ref="D43:L43" si="0">COUNTA(D4:D42)</f>
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E36" s="12">
+        <v>25</v>
+      </c>
+      <c r="F43" s="12">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G36" s="13">
+        <v>13</v>
+      </c>
+      <c r="G43" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H43" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I43" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J43" s="12">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K36" s="12">
+        <v>28</v>
+      </c>
+      <c r="K43" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L43" s="64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M36" s="12">
-        <f t="shared" si="0"/>
+      <c r="M43" s="12">
+        <f>COUNTA(M4:M42)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="12">
-        <f t="shared" si="0"/>
+      <c r="N43" s="12">
+        <f t="shared" ref="N43:Q43" si="1">COUNTA(N4:N42)</f>
         <v>5</v>
       </c>
-      <c r="O36" s="12">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="P36" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="37">
-        <f t="shared" ref="C37:G37" si="1">C36/($C$36+$D$36+$E$36+$F$36+$G$36)*100</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="38">
+      <c r="O43" s="12">
         <f t="shared" si="1"/>
-        <v>3.125</v>
-      </c>
-      <c r="E37" s="38">
+        <v>20</v>
+      </c>
+      <c r="P43" s="12">
         <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="F37" s="38">
-        <f t="shared" si="1"/>
-        <v>34.375</v>
-      </c>
-      <c r="G37" s="39">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H37" s="37">
-        <f t="shared" ref="H37:L37" si="2">H36/($H$36+$I$36+$J$36+$K$36+$L$36)*100</f>
+    </row>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="37">
+        <f t="shared" ref="C44:G44" si="2">C43/($C$43+$D$43+$E$43+$F$43+$G$43)*100</f>
         <v>0</v>
       </c>
-      <c r="I37" s="38">
+      <c r="D44" s="38">
         <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="J37" s="38">
+        <v>2.5641025641025639</v>
+      </c>
+      <c r="E44" s="38">
         <f t="shared" si="2"/>
-        <v>65.625</v>
-      </c>
-      <c r="K37" s="38">
+        <v>64.102564102564102</v>
+      </c>
+      <c r="F44" s="38">
         <f t="shared" si="2"/>
-        <v>21.875</v>
-      </c>
-      <c r="L37" s="39">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G44" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M37" s="37">
-        <f t="shared" ref="M37:Q37" si="3">M36/($M$36+$N$36+$O$36+$P$36+$Q$36)*100</f>
+      <c r="H44" s="37">
+        <f t="shared" ref="H44:L44" si="3">H43/($H$43+$I$43+$J$43+$K$43+$L$43)*100</f>
         <v>0</v>
       </c>
-      <c r="N37" s="38">
+      <c r="I44" s="38">
         <f t="shared" si="3"/>
-        <v>15.625</v>
-      </c>
-      <c r="O37" s="38">
+        <v>10.256410256410255</v>
+      </c>
+      <c r="J44" s="38">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="P37" s="38">
+        <v>71.794871794871796</v>
+      </c>
+      <c r="K44" s="38">
         <f t="shared" si="3"/>
-        <v>34.375</v>
-      </c>
-      <c r="Q37" s="39">
+        <v>17.948717948717949</v>
+      </c>
+      <c r="L44" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M44" s="37">
+        <f t="shared" ref="M44:Q44" si="4">M43/($M$43+$N$43+$O$43+$P$43+$Q$43)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="38">
+        <f t="shared" si="4"/>
+        <v>12.820512820512819</v>
+      </c>
+      <c r="O44" s="38">
+        <f t="shared" si="4"/>
+        <v>51.282051282051277</v>
+      </c>
+      <c r="P44" s="38">
+        <f t="shared" si="4"/>
+        <v>35.897435897435898</v>
+      </c>
+      <c r="Q44" s="39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16281,6 +17991,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:G2"/>
@@ -16297,13 +18014,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:P1000"/>
+  <dimension ref="B1:P1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16317,14 +18034,14 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
       <c r="K2" s="43"/>
@@ -17114,85 +18831,235 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="6">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>34</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="11">
-        <f t="shared" ref="C36:H36" si="0">COUNTA(C4:C35)</f>
-        <v>17</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C43" s="11">
+        <f>COUNTA(C4:C42)</f>
+        <v>21</v>
+      </c>
+      <c r="D43" s="12">
+        <f>COUNTA(D4:D42)</f>
+        <v>22</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" ref="E43:F43" si="0">COUNTA(E4:E42)</f>
+        <v>15</v>
+      </c>
+      <c r="F43" s="12">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E36" s="12">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F36" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G36" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H36" s="46">
-        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G43" s="13">
+        <f>COUNTA(G4:G42)</f>
+        <v>11</v>
+      </c>
+      <c r="H43" s="46">
+        <f>COUNTA(H4:H42)</f>
         <v>2</v>
       </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-    </row>
-    <row r="37" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+    </row>
+    <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="38">
-        <f t="shared" ref="C37:G37" si="1">(C36*100)/$C$39</f>
-        <v>53.125</v>
-      </c>
-      <c r="D37" s="38">
+      <c r="C44" s="38">
+        <f t="shared" ref="C44:G44" si="1">(C43*100)/$C$46</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="D44" s="38">
         <f t="shared" si="1"/>
-        <v>59.375</v>
-      </c>
-      <c r="E37" s="38">
+        <v>56.410256410256409</v>
+      </c>
+      <c r="E44" s="38">
         <f t="shared" si="1"/>
-        <v>40.625</v>
-      </c>
-      <c r="F37" s="38">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="F44" s="38">
         <f t="shared" si="1"/>
-        <v>31.25</v>
-      </c>
-      <c r="G37" s="38">
+        <v>28.205128205128204</v>
+      </c>
+      <c r="G44" s="38">
         <f t="shared" si="1"/>
-        <v>28.125</v>
-      </c>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="48" t="s">
+        <v>28.205128205128204</v>
+      </c>
+      <c r="H44" s="47"/>
+    </row>
+    <row r="45" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="49">
-        <v>32</v>
-      </c>
-      <c r="D39" s="50"/>
-    </row>
-    <row r="40" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C46" s="49">
+        <v>39</v>
+      </c>
+      <c r="D46" s="50"/>
+    </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18147,6 +20014,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:H2"/>
@@ -18163,11 +20037,11 @@
   </sheetPr>
   <dimension ref="B1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18727,7 +20601,7 @@
       <c r="B34" s="53">
         <v>32</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="8"/>
@@ -18740,31 +20614,125 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-    </row>
-    <row r="36" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-    </row>
-    <row r="39" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="53">
+        <v>33</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="53">
+        <v>34</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="53">
+        <v>35</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="53">
+        <v>36</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="53">
+        <v>37</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="53">
+        <v>38</v>
+      </c>
+      <c r="C40" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="2:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="75">
+        <v>39</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
     <row r="42" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
